--- a/ITERACION 5/ENTREGABLE FINAL/PLAN DE PRUEBAS/CASOS DE PRUEBA CC/CP_CC_CUS004-CAMBIAR_ESTADO_CONTRATO_ADDENDA.xlsx
+++ b/ITERACION 5/ENTREGABLE FINAL/PLAN DE PRUEBAS/CASOS DE PRUEBA CC/CP_CC_CUS004-CAMBIAR_ESTADO_CONTRATO_ADDENDA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="77">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Se esperaba "Fecha de Actualización"</t>
   </si>
   <si>
-    <t>SC1 - Actualización Satisfactoria de estado - Mensaje al aceptar</t>
-  </si>
-  <si>
     <t>Se esperaba mensaje "Registro guardado exitosamente"</t>
   </si>
   <si>
@@ -244,6 +241,12 @@
   </si>
   <si>
     <t>Firmado</t>
+  </si>
+  <si>
+    <t>SC1 - Actualización Satisfactoria de estado - Mensaje de confirmación de actualización Contrato</t>
+  </si>
+  <si>
+    <t>SC1 - Actualización Satisfactoria de estado - Mensaje de confirmación de actualización Addenda</t>
   </si>
 </sst>
 </file>
@@ -404,15 +407,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -426,6 +420,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1007,12 +1010,12 @@
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1041,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1085,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>28</v>
@@ -1109,7 +1112,7 @@
         <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>34</v>
@@ -1127,7 +1130,7 @@
         <v>35</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>15</v>
@@ -1140,7 +1143,7 @@
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1214,8 +1217,8 @@
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>55</v>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1283,7 +1286,7 @@
       <c r="X3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1291,8 +1294,8 @@
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>56</v>
+      <c r="B4" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1352,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>5</v>
@@ -1360,7 +1363,7 @@
       <c r="X4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1368,7 +1371,7 @@
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1437,7 +1440,7 @@
       <c r="X5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1445,8 +1448,8 @@
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>50</v>
+      <c r="B6" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1512,9 +1515,9 @@
         <v>48</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1522,8 +1525,8 @@
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>52</v>
+      <c r="B7" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -1596,8 +1599,8 @@
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>54</v>
+      <c r="B8" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1665,7 +1668,7 @@
       <c r="X8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="13" t="s">
+      <c r="Y8" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1673,76 +1676,76 @@
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y9" s="13" t="s">
+      <c r="Y9" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1750,8 +1753,8 @@
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>61</v>
+      <c r="B10" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1817,15 +1820,15 @@
         <v>5</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>50</v>
+      <c r="B11" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1891,9 +1894,9 @@
         <v>48</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y11" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1907,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,7 +1959,7 @@
         <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>28</v>
@@ -1980,7 +1983,7 @@
         <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>34</v>
@@ -1998,7 +2001,7 @@
         <v>35</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>15</v>
@@ -2014,14 +2017,14 @@
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -2088,8 +2091,8 @@
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>55</v>
+      <c r="C3" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -2165,8 +2168,8 @@
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>56</v>
+      <c r="C4" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -2223,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>5</v>
@@ -2242,56 +2245,56 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="11">
+        <v>41251</v>
+      </c>
+      <c r="N5" s="11">
+        <v>41438</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="P5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="14">
-        <v>41251</v>
-      </c>
-      <c r="N5" s="14">
-        <v>41438</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>38</v>
@@ -2319,8 +2322,8 @@
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>50</v>
+      <c r="C6" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -2383,7 +2386,7 @@
         <v>38</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y6" t="s">
         <v>42</v>
@@ -2396,14 +2399,14 @@
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>52</v>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -2470,8 +2473,8 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>54</v>
+      <c r="C8" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -2547,71 +2550,71 @@
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="Y9" t="s">
         <v>40</v>
@@ -2624,14 +2627,14 @@
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>61</v>
+      <c r="C10" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -2643,29 +2646,29 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="12">
+        <v>40940</v>
+      </c>
+      <c r="N10" s="12">
+        <v>41284</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="15">
-        <v>40940</v>
-      </c>
-      <c r="N10" s="15">
-        <v>41284</v>
-      </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="Q10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -2698,8 +2701,8 @@
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>50</v>
+      <c r="C11" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -2762,7 +2765,7 @@
         <v>38</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y11" t="s">
         <v>42</v>

--- a/ITERACION 5/ENTREGABLE FINAL/PLAN DE PRUEBAS/CASOS DE PRUEBA CC/CP_CC_CUS004-CAMBIAR_ESTADO_CONTRATO_ADDENDA.xlsx
+++ b/ITERACION 5/ENTREGABLE FINAL/PLAN DE PRUEBAS/CASOS DE PRUEBA CC/CP_CC_CUS004-CAMBIAR_ESTADO_CONTRATO_ADDENDA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="77">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -1908,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,7 +1936,7 @@
     <col min="24" max="24" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2157,11 +2157,8 @@
       <c r="X3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2234,11 +2231,8 @@
       <c r="X4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2311,11 +2305,8 @@
       <c r="X5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y5" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2388,11 +2379,8 @@
       <c r="X6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Y6" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2466,7 +2454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2539,11 +2527,8 @@
       <c r="X8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2616,11 +2601,8 @@
       <c r="X9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Y9" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2694,7 +2676,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2766,9 +2748,6 @@
       </c>
       <c r="X11" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
